--- a/data/Volatile fatty acids data/VFA_Fp_Fecal.xlsx
+++ b/data/Volatile fatty acids data/VFA_Fp_Fecal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/anamois_caltech_edu/Documents/Caltech/MZ Lab/Write ups/Paper/Data availability/Volatile fatty acids data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/anamois_caltech_edu/Documents/Caltech/MZ Lab/Writing/Paper/Data availability/Volatile fatty acids data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{D6B4A200-35C1-462A-96CB-85815A6E40FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14C9041D-EA96-E443-9A88-70645531A2C4}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{D6B4A200-35C1-462A-96CB-85815A6E40FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{381E8C94-F004-514B-9D69-DBDA0BC0014B}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="28480" windowHeight="17500" firstSheet="1" activeTab="1" xr2:uid="{A440BE12-6817-41E2-ADAE-658F40708A10}"/>
   </bookViews>
@@ -247,13 +247,13 @@
     <t>Key</t>
   </si>
   <si>
-    <t>WT</t>
-  </si>
-  <si>
-    <t>ASO-Cntrl</t>
-  </si>
-  <si>
-    <t>ASO-Fp</t>
+    <t>Wildtype</t>
+  </si>
+  <si>
+    <t>Thy1-ASO-Control</t>
+  </si>
+  <si>
+    <t>Thy1-ASO-F. prausnitzii</t>
   </si>
 </sst>
 </file>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E0F17E-EC17-4502-ABEF-2F527D34E0C6}">
   <dimension ref="A1:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:M10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
